--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\sec1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BE0E99-A944-4425-A74B-DA8A1D245212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E37B19B-81C7-42AB-8EFB-036A00E2E592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,33 @@
   </si>
   <si>
     <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>saber.com</t>
+  </si>
+  <si>
+    <t>maher.com</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>cairo</t>
+  </si>
+  <si>
+    <t>mo.com</t>
+  </si>
+  <si>
+    <t>magdy</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>magdy.eg</t>
   </si>
 </sst>
 </file>
@@ -369,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,8 +417,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -404,8 +434,11 @@
       <c r="D2">
         <v>10512545</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -418,8 +451,11 @@
       <c r="D3">
         <v>121545</v>
       </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -428,6 +464,40 @@
       </c>
       <c r="D4">
         <v>12154848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1514515</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>684684</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
